--- a/choosen_data.xlsx
+++ b/choosen_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>Model listwy:</t>
   </si>
@@ -22,64 +22,109 @@
     <t>NPM-V</t>
   </si>
   <si>
+    <t>Akcesoria dodatkowe:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 moduł czujników + 3xMCB</t>
+  </si>
+  <si>
+    <t>Typ czujników:</t>
+  </si>
+  <si>
+    <t>NPM-V moduł czujników dodatkowych_1 T_H1+Smoke+Water</t>
+  </si>
+  <si>
     <t>Uchwyty:</t>
   </si>
   <si>
-    <t>Beznarzędziowe + przód/tył (góra/dół)</t>
+    <t>Beznarzędziowe</t>
   </si>
   <si>
     <t>Zasilanie na wejściu:</t>
   </si>
   <si>
-    <t>2 x IEC 60309 (32A/250V)</t>
+    <t>2 x IEC 320 C14 (10A/250V)</t>
+  </si>
+  <si>
+    <t>Długość kabla</t>
+  </si>
+  <si>
+    <t>90m</t>
   </si>
   <si>
     <t>Kontrola PDU:</t>
   </si>
   <si>
-    <t>6 x bezpiecznik automatyczny + 6 x kontrolka LED</t>
+    <t>3 x kontrolka Led</t>
   </si>
   <si>
     <t>Ochrona PDU:</t>
   </si>
   <si>
-    <t>6 x bezpiecznik automatyczny  32A + 3x bezpiecznik kontrolki LED</t>
+    <t>2 x amperomierz jednofazowy</t>
   </si>
   <si>
     <t>Ilość gniazd I typu:</t>
   </si>
   <si>
-    <t>08</t>
+    <t>18</t>
   </si>
   <si>
     <t>I typ gniazd:</t>
   </si>
   <si>
-    <t>IEC320 C13 (10A) z zamkiem i bezpiecznikiem</t>
+    <t>BS1363 (90°)</t>
   </si>
   <si>
     <t>Ilość gniazd II typu:</t>
   </si>
   <si>
-    <t>11</t>
+    <t>21</t>
   </si>
   <si>
     <t xml:space="preserve">II typ gniazd: </t>
   </si>
   <si>
-    <t>IEC 60309 (32A/250V)</t>
+    <t>Wymiary listwy:</t>
+  </si>
+  <si>
+    <t>122 x 32 x 12</t>
+  </si>
+  <si>
+    <t>Dobrany kabel:</t>
+  </si>
+  <si>
+    <t>H05W-F 3x1.5mm2, , czarny</t>
   </si>
   <si>
     <t>Index krótki:</t>
   </si>
   <si>
-    <t>1134N39CA.08-5,11-8</t>
+    <t>1134N238V.D3BE18.9-21,9-</t>
   </si>
   <si>
     <t xml:space="preserve">Index długi: </t>
   </si>
   <si>
-    <t>Listwa zarządzalna pionowa BKT NPM-V typ 08 x IEC320 C13 (10A) z zamkiem i bezpiecznikiem + 11 x IEC 60309 (32A/250V) , 2 x IEC 60309 (32A/250V)</t>
+    <t>Listwa zarządzalna pionowa BKT NPM-V typ 18 x BS1363 (90°) + 21 x BS1363 (90°) , 2 x IEC 320 C14 (10A/250V)</t>
+  </si>
+  <si>
+    <t>Maksymalne obciążenie:</t>
+  </si>
+  <si>
+    <t>10A</t>
+  </si>
+  <si>
+    <t>Moc znamionowa:</t>
+  </si>
+  <si>
+    <t>2300W</t>
+  </si>
+  <si>
+    <t>Elementy dodatkowe łącznie:</t>
+  </si>
+  <si>
+    <t>3 x kontrolka Led, 2 x amperomierz jednofazowy,  1 moduł czujników + 3xMCB, NPM-V moduł czujników dodatkowych_1 T_H1+Smoke+Water</t>
   </si>
 </sst>
 </file>
@@ -135,8 +180,8 @@
   </borders>
   <cellStyleXfs count="6">
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
@@ -148,12 +193,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="6" name="Comma [0]" xfId="0"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
     <cellStyle builtinId="5" name="Percent" xfId="3"/>
-    <cellStyle builtinId="4" name="Currency" xfId="4"/>
-    <cellStyle builtinId="3" name="Comma" xfId="5"/>
+    <cellStyle builtinId="3" name="Comma" xfId="4"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -449,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -550,6 +595,70 @@
         <v>21</v>
       </c>
     </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
